--- a/用例数据/沪A/信用保护凭证/信用保护凭证质押入库/测试结果.xlsx
+++ b/用例数据/沪A/信用保护凭证/信用保护凭证质押入库/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="458">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1396,6 +1396,18 @@
   </si>
   <si>
     <t>8800.00</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNOCKTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -35539,7 +35551,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -35550,7 +35562,7 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>455</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -35577,13 +35589,13 @@
         <v>288</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>456</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>457</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>249</v>

--- a/用例数据/沪A/信用保护凭证/信用保护凭证质押入库/测试结果.xlsx
+++ b/用例数据/沪A/信用保护凭证/信用保护凭证质押入库/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="276" windowWidth="21600" windowHeight="11388" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="270" windowWidth="21600" windowHeight="11385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="461">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1383,12 +1383,6 @@
     <t>000007096502</t>
   </si>
   <si>
-    <t>20221215225003</t>
-  </si>
-  <si>
-    <t>7700.00</t>
-  </si>
-  <si>
     <t>双方余额不等</t>
   </si>
   <si>
@@ -1408,6 +1402,21 @@
   <si>
     <t>BUSINESSDATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230201143626</t>
+  </si>
+  <si>
+    <t>170001</t>
+  </si>
+  <si>
+    <t>仅登记公司有余额</t>
+  </si>
+  <si>
+    <t>20230131000000</t>
+  </si>
+  <si>
+    <t>仅系统有余额</t>
   </si>
 </sst>
 </file>
@@ -1763,22 +1772,22 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="62" max="62" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="62" max="62" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -3374,7 +3383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -3640,17 +3649,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -4407,7 +4416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -4742,7 +4751,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>281</v>
       </c>
@@ -5412,17 +5421,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -5620,7 +5629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>281</v>
       </c>
@@ -5670,84 +5679,84 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5762,9 +5771,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -5853,7 +5862,7 @@
       <c r="CH1" s="4"/>
       <c r="CI1" s="4"/>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5942,7 +5951,7 @@
       <c r="CH2" s="4"/>
       <c r="CI2" s="4"/>
     </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6031,7 +6040,7 @@
       <c r="CH3" s="4"/>
       <c r="CI3" s="4"/>
     </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>313</v>
       </c>
@@ -6122,7 +6131,7 @@
       <c r="CH4" s="4"/>
       <c r="CI4" s="4"/>
     </row>
-    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>314</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>314</v>
       </c>
@@ -7174,7 +7183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7263,7 +7272,7 @@
       <c r="CH9" s="4"/>
       <c r="CI9" s="4"/>
     </row>
-    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7352,7 +7361,7 @@
       <c r="CH10" s="4"/>
       <c r="CI10" s="4"/>
     </row>
-    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -7441,7 +7450,7 @@
       <c r="CH11" s="4"/>
       <c r="CI11" s="4"/>
     </row>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -7530,7 +7539,7 @@
       <c r="CH12" s="4"/>
       <c r="CI12" s="4"/>
     </row>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -7619,7 +7628,7 @@
       <c r="CH13" s="4"/>
       <c r="CI13" s="4"/>
     </row>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -7708,7 +7717,7 @@
       <c r="CH14" s="4"/>
       <c r="CI14" s="4"/>
     </row>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -7797,7 +7806,7 @@
       <c r="CH15" s="4"/>
       <c r="CI15" s="4"/>
     </row>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -7886,7 +7895,7 @@
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
     </row>
-    <row r="17" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -7975,7 +7984,7 @@
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
     </row>
-    <row r="18" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -8064,7 +8073,7 @@
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
     </row>
-    <row r="19" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8153,7 +8162,7 @@
       <c r="CH19" s="4"/>
       <c r="CI19" s="4"/>
     </row>
-    <row r="20" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8242,7 +8251,7 @@
       <c r="CH20" s="4"/>
       <c r="CI20" s="4"/>
     </row>
-    <row r="21" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -8331,7 +8340,7 @@
       <c r="CH21" s="4"/>
       <c r="CI21" s="4"/>
     </row>
-    <row r="22" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -8420,7 +8429,7 @@
       <c r="CH22" s="4"/>
       <c r="CI22" s="4"/>
     </row>
-    <row r="23" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -8509,7 +8518,7 @@
       <c r="CH23" s="4"/>
       <c r="CI23" s="4"/>
     </row>
-    <row r="24" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -8598,7 +8607,7 @@
       <c r="CH24" s="4"/>
       <c r="CI24" s="4"/>
     </row>
-    <row r="25" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8687,7 +8696,7 @@
       <c r="CH25" s="4"/>
       <c r="CI25" s="4"/>
     </row>
-    <row r="26" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8776,7 +8785,7 @@
       <c r="CH26" s="4"/>
       <c r="CI26" s="4"/>
     </row>
-    <row r="27" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8865,7 +8874,7 @@
       <c r="CH27" s="4"/>
       <c r="CI27" s="4"/>
     </row>
-    <row r="28" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>321</v>
       </c>
@@ -8956,7 +8965,7 @@
       <c r="CH28" s="4"/>
       <c r="CI28" s="4"/>
     </row>
-    <row r="29" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -9109,7 +9118,7 @@
       <c r="CH29" s="4"/>
       <c r="CI29" s="4"/>
     </row>
-    <row r="30" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>322</v>
       </c>
@@ -9242,7 +9251,7 @@
       <c r="CH30" s="4"/>
       <c r="CI30" s="4"/>
     </row>
-    <row r="31" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>322</v>
       </c>
@@ -9375,7 +9384,7 @@
       <c r="CH31" s="4"/>
       <c r="CI31" s="4"/>
     </row>
-    <row r="32" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>322</v>
       </c>
@@ -9508,7 +9517,7 @@
       <c r="CH32" s="4"/>
       <c r="CI32" s="4"/>
     </row>
-    <row r="33" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -9597,7 +9606,7 @@
       <c r="CH33" s="4"/>
       <c r="CI33" s="4"/>
     </row>
-    <row r="34" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -9686,7 +9695,7 @@
       <c r="CH34" s="4"/>
       <c r="CI34" s="4"/>
     </row>
-    <row r="35" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>328</v>
       </c>
@@ -9777,7 +9786,7 @@
       <c r="CH35" s="4"/>
       <c r="CI35" s="4"/>
     </row>
-    <row r="36" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -10004,7 +10013,7 @@
       <c r="CH36" s="4"/>
       <c r="CI36" s="4"/>
     </row>
-    <row r="37" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>322</v>
       </c>
@@ -10213,7 +10222,7 @@
       <c r="CH37" s="4"/>
       <c r="CI37" s="4"/>
     </row>
-    <row r="38" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>322</v>
       </c>
@@ -10422,7 +10431,7 @@
       <c r="CH38" s="4"/>
       <c r="CI38" s="4"/>
     </row>
-    <row r="39" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>322</v>
       </c>
@@ -10631,7 +10640,7 @@
       <c r="CH39" s="4"/>
       <c r="CI39" s="4"/>
     </row>
-    <row r="40" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>322</v>
       </c>
@@ -10840,7 +10849,7 @@
       <c r="CH40" s="4"/>
       <c r="CI40" s="4"/>
     </row>
-    <row r="41" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>322</v>
       </c>
@@ -11049,7 +11058,7 @@
       <c r="CH41" s="4"/>
       <c r="CI41" s="4"/>
     </row>
-    <row r="42" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>322</v>
       </c>
@@ -11258,7 +11267,7 @@
       <c r="CH42" s="4"/>
       <c r="CI42" s="4"/>
     </row>
-    <row r="43" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>322</v>
       </c>
@@ -11467,7 +11476,7 @@
       <c r="CH43" s="4"/>
       <c r="CI43" s="4"/>
     </row>
-    <row r="44" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>322</v>
       </c>
@@ -11676,7 +11685,7 @@
       <c r="CH44" s="4"/>
       <c r="CI44" s="4"/>
     </row>
-    <row r="45" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>322</v>
       </c>
@@ -11885,7 +11894,7 @@
       <c r="CH45" s="4"/>
       <c r="CI45" s="4"/>
     </row>
-    <row r="46" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>322</v>
       </c>
@@ -12094,7 +12103,7 @@
       <c r="CH46" s="4"/>
       <c r="CI46" s="4"/>
     </row>
-    <row r="47" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -12183,7 +12192,7 @@
       <c r="CH47" s="4"/>
       <c r="CI47" s="4"/>
     </row>
-    <row r="48" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -12272,7 +12281,7 @@
       <c r="CH48" s="4"/>
       <c r="CI48" s="4"/>
     </row>
-    <row r="49" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -12361,7 +12370,7 @@
       <c r="CH49" s="4"/>
       <c r="CI49" s="4"/>
     </row>
-    <row r="50" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12450,7 +12459,7 @@
       <c r="CH50" s="4"/>
       <c r="CI50" s="4"/>
     </row>
-    <row r="51" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12539,7 +12548,7 @@
       <c r="CH51" s="4"/>
       <c r="CI51" s="4"/>
     </row>
-    <row r="52" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12628,7 +12637,7 @@
       <c r="CH52" s="4"/>
       <c r="CI52" s="4"/>
     </row>
-    <row r="53" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12717,7 +12726,7 @@
       <c r="CH53" s="4"/>
       <c r="CI53" s="4"/>
     </row>
-    <row r="54" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12806,7 +12815,7 @@
       <c r="CH54" s="4"/>
       <c r="CI54" s="4"/>
     </row>
-    <row r="55" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -12895,7 +12904,7 @@
       <c r="CH55" s="4"/>
       <c r="CI55" s="4"/>
     </row>
-    <row r="56" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12984,7 +12993,7 @@
       <c r="CH56" s="4"/>
       <c r="CI56" s="4"/>
     </row>
-    <row r="57" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -13073,7 +13082,7 @@
       <c r="CH57" s="4"/>
       <c r="CI57" s="4"/>
     </row>
-    <row r="58" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -13162,7 +13171,7 @@
       <c r="CH58" s="4"/>
       <c r="CI58" s="4"/>
     </row>
-    <row r="59" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -13251,7 +13260,7 @@
       <c r="CH59" s="4"/>
       <c r="CI59" s="4"/>
     </row>
-    <row r="60" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -13340,7 +13349,7 @@
       <c r="CH60" s="4"/>
       <c r="CI60" s="4"/>
     </row>
-    <row r="61" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -13429,7 +13438,7 @@
       <c r="CH61" s="4"/>
       <c r="CI61" s="4"/>
     </row>
-    <row r="62" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -13518,7 +13527,7 @@
       <c r="CH62" s="4"/>
       <c r="CI62" s="4"/>
     </row>
-    <row r="63" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -13607,7 +13616,7 @@
       <c r="CH63" s="4"/>
       <c r="CI63" s="4"/>
     </row>
-    <row r="64" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -13696,7 +13705,7 @@
       <c r="CH64" s="4"/>
       <c r="CI64" s="4"/>
     </row>
-    <row r="65" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -13785,7 +13794,7 @@
       <c r="CH65" s="4"/>
       <c r="CI65" s="4"/>
     </row>
-    <row r="66" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -13874,7 +13883,7 @@
       <c r="CH66" s="4"/>
       <c r="CI66" s="4"/>
     </row>
-    <row r="67" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -13963,7 +13972,7 @@
       <c r="CH67" s="4"/>
       <c r="CI67" s="4"/>
     </row>
-    <row r="68" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -14052,7 +14061,7 @@
       <c r="CH68" s="4"/>
       <c r="CI68" s="4"/>
     </row>
-    <row r="69" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -14141,7 +14150,7 @@
       <c r="CH69" s="4"/>
       <c r="CI69" s="4"/>
     </row>
-    <row r="70" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -14230,7 +14239,7 @@
       <c r="CH70" s="4"/>
       <c r="CI70" s="4"/>
     </row>
-    <row r="71" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -14319,7 +14328,7 @@
       <c r="CH71" s="4"/>
       <c r="CI71" s="4"/>
     </row>
-    <row r="72" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -14408,7 +14417,7 @@
       <c r="CH72" s="4"/>
       <c r="CI72" s="4"/>
     </row>
-    <row r="73" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -14497,7 +14506,7 @@
       <c r="CH73" s="4"/>
       <c r="CI73" s="4"/>
     </row>
-    <row r="74" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -14586,7 +14595,7 @@
       <c r="CH74" s="4"/>
       <c r="CI74" s="4"/>
     </row>
-    <row r="75" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -14675,7 +14684,7 @@
       <c r="CH75" s="4"/>
       <c r="CI75" s="4"/>
     </row>
-    <row r="76" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -14764,7 +14773,7 @@
       <c r="CH76" s="4"/>
       <c r="CI76" s="4"/>
     </row>
-    <row r="77" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -14853,7 +14862,7 @@
       <c r="CH77" s="4"/>
       <c r="CI77" s="4"/>
     </row>
-    <row r="78" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -14942,7 +14951,7 @@
       <c r="CH78" s="4"/>
       <c r="CI78" s="4"/>
     </row>
-    <row r="79" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -15031,7 +15040,7 @@
       <c r="CH79" s="4"/>
       <c r="CI79" s="4"/>
     </row>
-    <row r="80" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -15120,7 +15129,7 @@
       <c r="CH80" s="4"/>
       <c r="CI80" s="4"/>
     </row>
-    <row r="81" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -15209,7 +15218,7 @@
       <c r="CH81" s="4"/>
       <c r="CI81" s="4"/>
     </row>
-    <row r="82" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -15298,7 +15307,7 @@
       <c r="CH82" s="4"/>
       <c r="CI82" s="4"/>
     </row>
-    <row r="83" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -15387,7 +15396,7 @@
       <c r="CH83" s="4"/>
       <c r="CI83" s="4"/>
     </row>
-    <row r="84" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -15476,7 +15485,7 @@
       <c r="CH84" s="4"/>
       <c r="CI84" s="4"/>
     </row>
-    <row r="85" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -15565,7 +15574,7 @@
       <c r="CH85" s="4"/>
       <c r="CI85" s="4"/>
     </row>
-    <row r="86" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -15654,7 +15663,7 @@
       <c r="CH86" s="4"/>
       <c r="CI86" s="4"/>
     </row>
-    <row r="87" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -15743,7 +15752,7 @@
       <c r="CH87" s="4"/>
       <c r="CI87" s="4"/>
     </row>
-    <row r="88" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -15832,7 +15841,7 @@
       <c r="CH88" s="4"/>
       <c r="CI88" s="4"/>
     </row>
-    <row r="89" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -15921,7 +15930,7 @@
       <c r="CH89" s="4"/>
       <c r="CI89" s="4"/>
     </row>
-    <row r="90" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -16010,7 +16019,7 @@
       <c r="CH90" s="4"/>
       <c r="CI90" s="4"/>
     </row>
-    <row r="91" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -16099,7 +16108,7 @@
       <c r="CH91" s="4"/>
       <c r="CI91" s="4"/>
     </row>
-    <row r="92" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -16188,7 +16197,7 @@
       <c r="CH92" s="4"/>
       <c r="CI92" s="4"/>
     </row>
-    <row r="93" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -16277,7 +16286,7 @@
       <c r="CH93" s="4"/>
       <c r="CI93" s="4"/>
     </row>
-    <row r="94" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -16366,7 +16375,7 @@
       <c r="CH94" s="4"/>
       <c r="CI94" s="4"/>
     </row>
-    <row r="95" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -16455,7 +16464,7 @@
       <c r="CH95" s="4"/>
       <c r="CI95" s="4"/>
     </row>
-    <row r="96" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -16544,7 +16553,7 @@
       <c r="CH96" s="4"/>
       <c r="CI96" s="4"/>
     </row>
-    <row r="97" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -16633,7 +16642,7 @@
       <c r="CH97" s="4"/>
       <c r="CI97" s="4"/>
     </row>
-    <row r="98" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -16722,7 +16731,7 @@
       <c r="CH98" s="4"/>
       <c r="CI98" s="4"/>
     </row>
-    <row r="99" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -16811,7 +16820,7 @@
       <c r="CH99" s="4"/>
       <c r="CI99" s="4"/>
     </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -16900,7 +16909,7 @@
       <c r="CH100" s="4"/>
       <c r="CI100" s="4"/>
     </row>
-    <row r="101" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -16989,7 +16998,7 @@
       <c r="CH101" s="4"/>
       <c r="CI101" s="4"/>
     </row>
-    <row r="102" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -17078,7 +17087,7 @@
       <c r="CH102" s="4"/>
       <c r="CI102" s="4"/>
     </row>
-    <row r="103" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -17167,7 +17176,7 @@
       <c r="CH103" s="4"/>
       <c r="CI103" s="4"/>
     </row>
-    <row r="104" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -17256,7 +17265,7 @@
       <c r="CH104" s="4"/>
       <c r="CI104" s="4"/>
     </row>
-    <row r="105" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -17345,7 +17354,7 @@
       <c r="CH105" s="4"/>
       <c r="CI105" s="4"/>
     </row>
-    <row r="106" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -17434,7 +17443,7 @@
       <c r="CH106" s="4"/>
       <c r="CI106" s="4"/>
     </row>
-    <row r="107" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -17523,7 +17532,7 @@
       <c r="CH107" s="4"/>
       <c r="CI107" s="4"/>
     </row>
-    <row r="108" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -17612,7 +17621,7 @@
       <c r="CH108" s="4"/>
       <c r="CI108" s="4"/>
     </row>
-    <row r="109" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -17701,7 +17710,7 @@
       <c r="CH109" s="4"/>
       <c r="CI109" s="4"/>
     </row>
-    <row r="110" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -17790,7 +17799,7 @@
       <c r="CH110" s="4"/>
       <c r="CI110" s="4"/>
     </row>
-    <row r="111" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -17879,7 +17888,7 @@
       <c r="CH111" s="4"/>
       <c r="CI111" s="4"/>
     </row>
-    <row r="112" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -17968,7 +17977,7 @@
       <c r="CH112" s="4"/>
       <c r="CI112" s="4"/>
     </row>
-    <row r="113" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -18057,7 +18066,7 @@
       <c r="CH113" s="4"/>
       <c r="CI113" s="4"/>
     </row>
-    <row r="114" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -18146,7 +18155,7 @@
       <c r="CH114" s="4"/>
       <c r="CI114" s="4"/>
     </row>
-    <row r="115" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -18235,7 +18244,7 @@
       <c r="CH115" s="4"/>
       <c r="CI115" s="4"/>
     </row>
-    <row r="116" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -18324,7 +18333,7 @@
       <c r="CH116" s="4"/>
       <c r="CI116" s="4"/>
     </row>
-    <row r="117" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -18413,7 +18422,7 @@
       <c r="CH117" s="4"/>
       <c r="CI117" s="4"/>
     </row>
-    <row r="118" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -18502,7 +18511,7 @@
       <c r="CH118" s="4"/>
       <c r="CI118" s="4"/>
     </row>
-    <row r="119" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -18591,7 +18600,7 @@
       <c r="CH119" s="4"/>
       <c r="CI119" s="4"/>
     </row>
-    <row r="120" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -18680,7 +18689,7 @@
       <c r="CH120" s="4"/>
       <c r="CI120" s="4"/>
     </row>
-    <row r="121" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -18769,7 +18778,7 @@
       <c r="CH121" s="4"/>
       <c r="CI121" s="4"/>
     </row>
-    <row r="122" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -18858,7 +18867,7 @@
       <c r="CH122" s="4"/>
       <c r="CI122" s="4"/>
     </row>
-    <row r="123" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -18947,7 +18956,7 @@
       <c r="CH123" s="4"/>
       <c r="CI123" s="4"/>
     </row>
-    <row r="124" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -19036,7 +19045,7 @@
       <c r="CH124" s="4"/>
       <c r="CI124" s="4"/>
     </row>
-    <row r="125" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -19125,7 +19134,7 @@
       <c r="CH125" s="4"/>
       <c r="CI125" s="4"/>
     </row>
-    <row r="126" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -19214,7 +19223,7 @@
       <c r="CH126" s="4"/>
       <c r="CI126" s="4"/>
     </row>
-    <row r="127" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -19303,7 +19312,7 @@
       <c r="CH127" s="4"/>
       <c r="CI127" s="4"/>
     </row>
-    <row r="128" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -19392,7 +19401,7 @@
       <c r="CH128" s="4"/>
       <c r="CI128" s="4"/>
     </row>
-    <row r="129" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -19481,7 +19490,7 @@
       <c r="CH129" s="4"/>
       <c r="CI129" s="4"/>
     </row>
-    <row r="130" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -19570,7 +19579,7 @@
       <c r="CH130" s="4"/>
       <c r="CI130" s="4"/>
     </row>
-    <row r="131" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -19659,7 +19668,7 @@
       <c r="CH131" s="4"/>
       <c r="CI131" s="4"/>
     </row>
-    <row r="132" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -19748,7 +19757,7 @@
       <c r="CH132" s="4"/>
       <c r="CI132" s="4"/>
     </row>
-    <row r="133" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -19837,7 +19846,7 @@
       <c r="CH133" s="4"/>
       <c r="CI133" s="4"/>
     </row>
-    <row r="134" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -19926,7 +19935,7 @@
       <c r="CH134" s="4"/>
       <c r="CI134" s="4"/>
     </row>
-    <row r="135" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -20015,7 +20024,7 @@
       <c r="CH135" s="4"/>
       <c r="CI135" s="4"/>
     </row>
-    <row r="136" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -20104,7 +20113,7 @@
       <c r="CH136" s="4"/>
       <c r="CI136" s="4"/>
     </row>
-    <row r="137" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -20193,7 +20202,7 @@
       <c r="CH137" s="4"/>
       <c r="CI137" s="4"/>
     </row>
-    <row r="138" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -20282,7 +20291,7 @@
       <c r="CH138" s="4"/>
       <c r="CI138" s="4"/>
     </row>
-    <row r="139" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -20371,7 +20380,7 @@
       <c r="CH139" s="4"/>
       <c r="CI139" s="4"/>
     </row>
-    <row r="140" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -20460,7 +20469,7 @@
       <c r="CH140" s="4"/>
       <c r="CI140" s="4"/>
     </row>
-    <row r="141" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -20549,7 +20558,7 @@
       <c r="CH141" s="4"/>
       <c r="CI141" s="4"/>
     </row>
-    <row r="142" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -20638,7 +20647,7 @@
       <c r="CH142" s="4"/>
       <c r="CI142" s="4"/>
     </row>
-    <row r="143" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -20727,7 +20736,7 @@
       <c r="CH143" s="4"/>
       <c r="CI143" s="4"/>
     </row>
-    <row r="144" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -20816,7 +20825,7 @@
       <c r="CH144" s="4"/>
       <c r="CI144" s="4"/>
     </row>
-    <row r="145" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -20905,7 +20914,7 @@
       <c r="CH145" s="4"/>
       <c r="CI145" s="4"/>
     </row>
-    <row r="146" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -20994,7 +21003,7 @@
       <c r="CH146" s="4"/>
       <c r="CI146" s="4"/>
     </row>
-    <row r="147" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -21083,7 +21092,7 @@
       <c r="CH147" s="4"/>
       <c r="CI147" s="4"/>
     </row>
-    <row r="148" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -21172,7 +21181,7 @@
       <c r="CH148" s="4"/>
       <c r="CI148" s="4"/>
     </row>
-    <row r="149" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -21261,7 +21270,7 @@
       <c r="CH149" s="4"/>
       <c r="CI149" s="4"/>
     </row>
-    <row r="150" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -21350,7 +21359,7 @@
       <c r="CH150" s="4"/>
       <c r="CI150" s="4"/>
     </row>
-    <row r="151" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -21439,7 +21448,7 @@
       <c r="CH151" s="4"/>
       <c r="CI151" s="4"/>
     </row>
-    <row r="152" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -21528,7 +21537,7 @@
       <c r="CH152" s="4"/>
       <c r="CI152" s="4"/>
     </row>
-    <row r="153" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -21617,7 +21626,7 @@
       <c r="CH153" s="4"/>
       <c r="CI153" s="4"/>
     </row>
-    <row r="154" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -21706,7 +21715,7 @@
       <c r="CH154" s="4"/>
       <c r="CI154" s="4"/>
     </row>
-    <row r="155" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -21795,7 +21804,7 @@
       <c r="CH155" s="4"/>
       <c r="CI155" s="4"/>
     </row>
-    <row r="156" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -21884,7 +21893,7 @@
       <c r="CH156" s="4"/>
       <c r="CI156" s="4"/>
     </row>
-    <row r="157" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -21973,7 +21982,7 @@
       <c r="CH157" s="4"/>
       <c r="CI157" s="4"/>
     </row>
-    <row r="158" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -22062,7 +22071,7 @@
       <c r="CH158" s="4"/>
       <c r="CI158" s="4"/>
     </row>
-    <row r="159" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -22151,7 +22160,7 @@
       <c r="CH159" s="4"/>
       <c r="CI159" s="4"/>
     </row>
-    <row r="160" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -22240,7 +22249,7 @@
       <c r="CH160" s="4"/>
       <c r="CI160" s="4"/>
     </row>
-    <row r="161" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -22329,7 +22338,7 @@
       <c r="CH161" s="4"/>
       <c r="CI161" s="4"/>
     </row>
-    <row r="162" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -22418,7 +22427,7 @@
       <c r="CH162" s="4"/>
       <c r="CI162" s="4"/>
     </row>
-    <row r="163" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -22507,7 +22516,7 @@
       <c r="CH163" s="4"/>
       <c r="CI163" s="4"/>
     </row>
-    <row r="164" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -22596,7 +22605,7 @@
       <c r="CH164" s="4"/>
       <c r="CI164" s="4"/>
     </row>
-    <row r="165" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -22685,7 +22694,7 @@
       <c r="CH165" s="4"/>
       <c r="CI165" s="4"/>
     </row>
-    <row r="166" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -22774,7 +22783,7 @@
       <c r="CH166" s="4"/>
       <c r="CI166" s="4"/>
     </row>
-    <row r="167" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -22863,7 +22872,7 @@
       <c r="CH167" s="4"/>
       <c r="CI167" s="4"/>
     </row>
-    <row r="168" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -22952,7 +22961,7 @@
       <c r="CH168" s="4"/>
       <c r="CI168" s="4"/>
     </row>
-    <row r="169" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -23041,7 +23050,7 @@
       <c r="CH169" s="4"/>
       <c r="CI169" s="4"/>
     </row>
-    <row r="170" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -23130,7 +23139,7 @@
       <c r="CH170" s="4"/>
       <c r="CI170" s="4"/>
     </row>
-    <row r="171" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -23219,7 +23228,7 @@
       <c r="CH171" s="4"/>
       <c r="CI171" s="4"/>
     </row>
-    <row r="172" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -23308,7 +23317,7 @@
       <c r="CH172" s="4"/>
       <c r="CI172" s="4"/>
     </row>
-    <row r="173" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -23397,7 +23406,7 @@
       <c r="CH173" s="4"/>
       <c r="CI173" s="4"/>
     </row>
-    <row r="174" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -23486,7 +23495,7 @@
       <c r="CH174" s="4"/>
       <c r="CI174" s="4"/>
     </row>
-    <row r="175" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -23575,7 +23584,7 @@
       <c r="CH175" s="4"/>
       <c r="CI175" s="4"/>
     </row>
-    <row r="176" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -23664,7 +23673,7 @@
       <c r="CH176" s="4"/>
       <c r="CI176" s="4"/>
     </row>
-    <row r="177" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -23753,7 +23762,7 @@
       <c r="CH177" s="4"/>
       <c r="CI177" s="4"/>
     </row>
-    <row r="178" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -23842,7 +23851,7 @@
       <c r="CH178" s="4"/>
       <c r="CI178" s="4"/>
     </row>
-    <row r="179" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -23931,7 +23940,7 @@
       <c r="CH179" s="4"/>
       <c r="CI179" s="4"/>
     </row>
-    <row r="180" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -24020,7 +24029,7 @@
       <c r="CH180" s="4"/>
       <c r="CI180" s="4"/>
     </row>
-    <row r="181" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -24109,7 +24118,7 @@
       <c r="CH181" s="4"/>
       <c r="CI181" s="4"/>
     </row>
-    <row r="182" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -24198,7 +24207,7 @@
       <c r="CH182" s="4"/>
       <c r="CI182" s="4"/>
     </row>
-    <row r="183" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -24287,7 +24296,7 @@
       <c r="CH183" s="4"/>
       <c r="CI183" s="4"/>
     </row>
-    <row r="184" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -24376,7 +24385,7 @@
       <c r="CH184" s="4"/>
       <c r="CI184" s="4"/>
     </row>
-    <row r="185" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -24465,7 +24474,7 @@
       <c r="CH185" s="4"/>
       <c r="CI185" s="4"/>
     </row>
-    <row r="186" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -24554,7 +24563,7 @@
       <c r="CH186" s="4"/>
       <c r="CI186" s="4"/>
     </row>
-    <row r="187" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -24643,7 +24652,7 @@
       <c r="CH187" s="4"/>
       <c r="CI187" s="4"/>
     </row>
-    <row r="188" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -24732,7 +24741,7 @@
       <c r="CH188" s="4"/>
       <c r="CI188" s="4"/>
     </row>
-    <row r="189" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -24821,7 +24830,7 @@
       <c r="CH189" s="4"/>
       <c r="CI189" s="4"/>
     </row>
-    <row r="190" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -24910,7 +24919,7 @@
       <c r="CH190" s="4"/>
       <c r="CI190" s="4"/>
     </row>
-    <row r="191" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -24999,7 +25008,7 @@
       <c r="CH191" s="4"/>
       <c r="CI191" s="4"/>
     </row>
-    <row r="192" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -25088,7 +25097,7 @@
       <c r="CH192" s="4"/>
       <c r="CI192" s="4"/>
     </row>
-    <row r="193" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -25177,7 +25186,7 @@
       <c r="CH193" s="4"/>
       <c r="CI193" s="4"/>
     </row>
-    <row r="194" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -25266,7 +25275,7 @@
       <c r="CH194" s="4"/>
       <c r="CI194" s="4"/>
     </row>
-    <row r="195" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -25355,7 +25364,7 @@
       <c r="CH195" s="4"/>
       <c r="CI195" s="4"/>
     </row>
-    <row r="196" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -25444,7 +25453,7 @@
       <c r="CH196" s="4"/>
       <c r="CI196" s="4"/>
     </row>
-    <row r="197" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -25533,7 +25542,7 @@
       <c r="CH197" s="4"/>
       <c r="CI197" s="4"/>
     </row>
-    <row r="198" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -25622,7 +25631,7 @@
       <c r="CH198" s="4"/>
       <c r="CI198" s="4"/>
     </row>
-    <row r="199" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -25711,7 +25720,7 @@
       <c r="CH199" s="4"/>
       <c r="CI199" s="4"/>
     </row>
-    <row r="200" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -25800,7 +25809,7 @@
       <c r="CH200" s="4"/>
       <c r="CI200" s="4"/>
     </row>
-    <row r="201" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -25889,7 +25898,7 @@
       <c r="CH201" s="4"/>
       <c r="CI201" s="4"/>
     </row>
-    <row r="202" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -25978,7 +25987,7 @@
       <c r="CH202" s="4"/>
       <c r="CI202" s="4"/>
     </row>
-    <row r="203" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -26067,7 +26076,7 @@
       <c r="CH203" s="4"/>
       <c r="CI203" s="4"/>
     </row>
-    <row r="204" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -26156,7 +26165,7 @@
       <c r="CH204" s="4"/>
       <c r="CI204" s="4"/>
     </row>
-    <row r="205" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -26245,7 +26254,7 @@
       <c r="CH205" s="4"/>
       <c r="CI205" s="4"/>
     </row>
-    <row r="206" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -26334,7 +26343,7 @@
       <c r="CH206" s="4"/>
       <c r="CI206" s="4"/>
     </row>
-    <row r="207" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -26423,7 +26432,7 @@
       <c r="CH207" s="4"/>
       <c r="CI207" s="4"/>
     </row>
-    <row r="208" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -26512,7 +26521,7 @@
       <c r="CH208" s="4"/>
       <c r="CI208" s="4"/>
     </row>
-    <row r="209" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -26601,7 +26610,7 @@
       <c r="CH209" s="4"/>
       <c r="CI209" s="4"/>
     </row>
-    <row r="210" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -26690,7 +26699,7 @@
       <c r="CH210" s="4"/>
       <c r="CI210" s="4"/>
     </row>
-    <row r="211" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -26779,7 +26788,7 @@
       <c r="CH211" s="4"/>
       <c r="CI211" s="4"/>
     </row>
-    <row r="212" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -26868,7 +26877,7 @@
       <c r="CH212" s="4"/>
       <c r="CI212" s="4"/>
     </row>
-    <row r="213" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -26957,7 +26966,7 @@
       <c r="CH213" s="4"/>
       <c r="CI213" s="4"/>
     </row>
-    <row r="214" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -27046,7 +27055,7 @@
       <c r="CH214" s="4"/>
       <c r="CI214" s="4"/>
     </row>
-    <row r="215" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -27135,7 +27144,7 @@
       <c r="CH215" s="4"/>
       <c r="CI215" s="4"/>
     </row>
-    <row r="216" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -27224,7 +27233,7 @@
       <c r="CH216" s="4"/>
       <c r="CI216" s="4"/>
     </row>
-    <row r="217" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -27313,7 +27322,7 @@
       <c r="CH217" s="4"/>
       <c r="CI217" s="4"/>
     </row>
-    <row r="218" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -27402,7 +27411,7 @@
       <c r="CH218" s="4"/>
       <c r="CI218" s="4"/>
     </row>
-    <row r="219" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -27491,7 +27500,7 @@
       <c r="CH219" s="4"/>
       <c r="CI219" s="4"/>
     </row>
-    <row r="220" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -27580,7 +27589,7 @@
       <c r="CH220" s="4"/>
       <c r="CI220" s="4"/>
     </row>
-    <row r="221" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -27669,7 +27678,7 @@
       <c r="CH221" s="4"/>
       <c r="CI221" s="4"/>
     </row>
-    <row r="222" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -27758,7 +27767,7 @@
       <c r="CH222" s="4"/>
       <c r="CI222" s="4"/>
     </row>
-    <row r="223" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -27847,7 +27856,7 @@
       <c r="CH223" s="4"/>
       <c r="CI223" s="4"/>
     </row>
-    <row r="224" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -27936,7 +27945,7 @@
       <c r="CH224" s="4"/>
       <c r="CI224" s="4"/>
     </row>
-    <row r="225" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -28025,7 +28034,7 @@
       <c r="CH225" s="4"/>
       <c r="CI225" s="4"/>
     </row>
-    <row r="226" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -28114,7 +28123,7 @@
       <c r="CH226" s="4"/>
       <c r="CI226" s="4"/>
     </row>
-    <row r="227" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -28203,7 +28212,7 @@
       <c r="CH227" s="4"/>
       <c r="CI227" s="4"/>
     </row>
-    <row r="228" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -28292,7 +28301,7 @@
       <c r="CH228" s="4"/>
       <c r="CI228" s="4"/>
     </row>
-    <row r="229" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -28381,7 +28390,7 @@
       <c r="CH229" s="4"/>
       <c r="CI229" s="4"/>
     </row>
-    <row r="230" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -28470,7 +28479,7 @@
       <c r="CH230" s="4"/>
       <c r="CI230" s="4"/>
     </row>
-    <row r="231" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -28559,7 +28568,7 @@
       <c r="CH231" s="4"/>
       <c r="CI231" s="4"/>
     </row>
-    <row r="232" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -28648,7 +28657,7 @@
       <c r="CH232" s="4"/>
       <c r="CI232" s="4"/>
     </row>
-    <row r="233" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -28737,7 +28746,7 @@
       <c r="CH233" s="4"/>
       <c r="CI233" s="4"/>
     </row>
-    <row r="234" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -28826,7 +28835,7 @@
       <c r="CH234" s="4"/>
       <c r="CI234" s="4"/>
     </row>
-    <row r="235" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -28915,7 +28924,7 @@
       <c r="CH235" s="4"/>
       <c r="CI235" s="4"/>
     </row>
-    <row r="236" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -29004,7 +29013,7 @@
       <c r="CH236" s="4"/>
       <c r="CI236" s="4"/>
     </row>
-    <row r="237" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -29093,7 +29102,7 @@
       <c r="CH237" s="4"/>
       <c r="CI237" s="4"/>
     </row>
-    <row r="238" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -29182,7 +29191,7 @@
       <c r="CH238" s="4"/>
       <c r="CI238" s="4"/>
     </row>
-    <row r="239" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -29271,7 +29280,7 @@
       <c r="CH239" s="4"/>
       <c r="CI239" s="4"/>
     </row>
-    <row r="240" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -29360,7 +29369,7 @@
       <c r="CH240" s="4"/>
       <c r="CI240" s="4"/>
     </row>
-    <row r="241" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -29449,7 +29458,7 @@
       <c r="CH241" s="4"/>
       <c r="CI241" s="4"/>
     </row>
-    <row r="242" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -29538,7 +29547,7 @@
       <c r="CH242" s="4"/>
       <c r="CI242" s="4"/>
     </row>
-    <row r="243" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -29627,7 +29636,7 @@
       <c r="CH243" s="4"/>
       <c r="CI243" s="4"/>
     </row>
-    <row r="244" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -29716,7 +29725,7 @@
       <c r="CH244" s="4"/>
       <c r="CI244" s="4"/>
     </row>
-    <row r="245" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -29805,7 +29814,7 @@
       <c r="CH245" s="4"/>
       <c r="CI245" s="4"/>
     </row>
-    <row r="246" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -29894,7 +29903,7 @@
       <c r="CH246" s="4"/>
       <c r="CI246" s="4"/>
     </row>
-    <row r="247" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -29983,7 +29992,7 @@
       <c r="CH247" s="4"/>
       <c r="CI247" s="4"/>
     </row>
-    <row r="248" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -30072,7 +30081,7 @@
       <c r="CH248" s="4"/>
       <c r="CI248" s="4"/>
     </row>
-    <row r="249" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -30161,7 +30170,7 @@
       <c r="CH249" s="4"/>
       <c r="CI249" s="4"/>
     </row>
-    <row r="250" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -30250,7 +30259,7 @@
       <c r="CH250" s="4"/>
       <c r="CI250" s="4"/>
     </row>
-    <row r="251" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -30339,7 +30348,7 @@
       <c r="CH251" s="4"/>
       <c r="CI251" s="4"/>
     </row>
-    <row r="252" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -30428,7 +30437,7 @@
       <c r="CH252" s="4"/>
       <c r="CI252" s="4"/>
     </row>
-    <row r="253" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -30517,7 +30526,7 @@
       <c r="CH253" s="4"/>
       <c r="CI253" s="4"/>
     </row>
-    <row r="254" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -30606,7 +30615,7 @@
       <c r="CH254" s="4"/>
       <c r="CI254" s="4"/>
     </row>
-    <row r="255" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -30695,7 +30704,7 @@
       <c r="CH255" s="4"/>
       <c r="CI255" s="4"/>
     </row>
-    <row r="256" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -30784,7 +30793,7 @@
       <c r="CH256" s="4"/>
       <c r="CI256" s="4"/>
     </row>
-    <row r="257" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -30873,7 +30882,7 @@
       <c r="CH257" s="4"/>
       <c r="CI257" s="4"/>
     </row>
-    <row r="258" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -30962,7 +30971,7 @@
       <c r="CH258" s="4"/>
       <c r="CI258" s="4"/>
     </row>
-    <row r="259" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -31051,7 +31060,7 @@
       <c r="CH259" s="4"/>
       <c r="CI259" s="4"/>
     </row>
-    <row r="260" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -31140,7 +31149,7 @@
       <c r="CH260" s="4"/>
       <c r="CI260" s="4"/>
     </row>
-    <row r="261" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -31229,7 +31238,7 @@
       <c r="CH261" s="4"/>
       <c r="CI261" s="4"/>
     </row>
-    <row r="262" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -31332,15 +31341,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -31600,7 +31610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -31860,7 +31870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -32120,7 +32130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -32380,37 +32390,37 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32426,9 +32436,9 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -32847,7 +32857,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>415</v>
       </c>
@@ -33182,7 +33192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>424</v>
       </c>
@@ -33517,7 +33527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>428</v>
       </c>
@@ -33852,7 +33862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>432</v>
       </c>
@@ -34187,7 +34197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>436</v>
       </c>
@@ -34522,7 +34532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -34857,7 +34867,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -35192,7 +35202,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>448</v>
       </c>
@@ -35527,19 +35537,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35548,21 +35558,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -35589,13 +35602,13 @@
         <v>288</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>289</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>249</v>
@@ -35655,9 +35668,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -35666,31 +35679,31 @@
         <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>308</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>325</v>
@@ -35705,9 +35718,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
@@ -35722,25 +35735,22 @@
         <v>106</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="K3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>325</v>
@@ -35755,9 +35765,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>89</v>
@@ -35772,25 +35782,25 @@
         <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>311</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>308</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>325</v>
@@ -35805,18 +35815,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
